--- a/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/25Sept2013_Xining_Physioflow_X17X21/X17 2200 bosquet replay.xlsx
+++ b/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/25Sept2013_Xining_Physioflow_X17X21/X17 2200 bosquet replay.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView windowWidth="16391" windowHeight="5412"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -90,30 +90,6 @@
     <t xml:space="preserve"> Marks </t>
   </si>
   <si>
-    <t>rest at 2200</t>
-  </si>
-  <si>
-    <t>60w</t>
-  </si>
-  <si>
-    <t>120w</t>
-  </si>
-  <si>
-    <t>150w</t>
-  </si>
-  <si>
-    <t>180w</t>
-  </si>
-  <si>
-    <t>195w</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>---------------</t>
-  </si>
-  <si>
     <t xml:space="preserve">Avg Hr </t>
   </si>
   <si>
@@ -159,31 +135,398 @@
     <t>Avg EDFR</t>
   </si>
   <si>
+    <t>rest at 2200</t>
+  </si>
+  <si>
     <t>ABG @ rest</t>
+  </si>
+  <si>
+    <t>60w</t>
+  </si>
+  <si>
+    <t>120w</t>
+  </si>
+  <si>
+    <t>150w</t>
+  </si>
+  <si>
+    <t>180w</t>
+  </si>
+  <si>
+    <t>195w</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>---------------</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -191,20 +534,309 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="35" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -212,6 +844,1224 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$6:$A$68</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm:ss</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0" c:formatCode="h:mm:ss">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="h:mm:ss">
+                  <c:v>0.000833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="h:mm:ss">
+                  <c:v>0.000949074074074074</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="h:mm:ss">
+                  <c:v>0.00106481481481481</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="h:mm:ss">
+                  <c:v>0.00118055555555556</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="h:mm:ss">
+                  <c:v>0.0012962962962963</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="h:mm:ss">
+                  <c:v>0.00141203703703704</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="h:mm:ss">
+                  <c:v>0.00152777777777778</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="h:mm:ss">
+                  <c:v>0.00164351851851852</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="h:mm:ss">
+                  <c:v>0.00175925925925926</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="h:mm:ss">
+                  <c:v>0.001875</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="h:mm:ss">
+                  <c:v>0.00199074074074074</c:v>
+                </c:pt>
+                <c:pt idx="12" c:formatCode="h:mm:ss">
+                  <c:v>0.00210648148148148</c:v>
+                </c:pt>
+                <c:pt idx="13" c:formatCode="h:mm:ss">
+                  <c:v>0.00222222222222222</c:v>
+                </c:pt>
+                <c:pt idx="14" c:formatCode="h:mm:ss">
+                  <c:v>0.00233796296296296</c:v>
+                </c:pt>
+                <c:pt idx="15" c:formatCode="h:mm:ss">
+                  <c:v>0.0024537037037037</c:v>
+                </c:pt>
+                <c:pt idx="16" c:formatCode="h:mm:ss">
+                  <c:v>0.00256944444444444</c:v>
+                </c:pt>
+                <c:pt idx="17" c:formatCode="h:mm:ss">
+                  <c:v>0.00268518518518518</c:v>
+                </c:pt>
+                <c:pt idx="18" c:formatCode="h:mm:ss">
+                  <c:v>0.00280092592592593</c:v>
+                </c:pt>
+                <c:pt idx="19" c:formatCode="h:mm:ss">
+                  <c:v>0.00291666666666667</c:v>
+                </c:pt>
+                <c:pt idx="20" c:formatCode="h:mm:ss">
+                  <c:v>0.00303240740740741</c:v>
+                </c:pt>
+                <c:pt idx="21" c:formatCode="h:mm:ss">
+                  <c:v>0.00314814814814815</c:v>
+                </c:pt>
+                <c:pt idx="22" c:formatCode="h:mm:ss">
+                  <c:v>0.00326388888888889</c:v>
+                </c:pt>
+                <c:pt idx="23" c:formatCode="h:mm:ss">
+                  <c:v>0.00337962962962963</c:v>
+                </c:pt>
+                <c:pt idx="24" c:formatCode="h:mm:ss">
+                  <c:v>0.00349537037037037</c:v>
+                </c:pt>
+                <c:pt idx="25" c:formatCode="h:mm:ss">
+                  <c:v>0.00361111111111111</c:v>
+                </c:pt>
+                <c:pt idx="26" c:formatCode="h:mm:ss">
+                  <c:v>0.00372685185185185</c:v>
+                </c:pt>
+                <c:pt idx="27" c:formatCode="h:mm:ss">
+                  <c:v>0.00384259259259259</c:v>
+                </c:pt>
+                <c:pt idx="28" c:formatCode="h:mm:ss">
+                  <c:v>0.00395833333333333</c:v>
+                </c:pt>
+                <c:pt idx="29" c:formatCode="h:mm:ss">
+                  <c:v>0.00407407407407407</c:v>
+                </c:pt>
+                <c:pt idx="30" c:formatCode="h:mm:ss">
+                  <c:v>0.00418981481481481</c:v>
+                </c:pt>
+                <c:pt idx="31" c:formatCode="h:mm:ss">
+                  <c:v>0.00430555555555556</c:v>
+                </c:pt>
+                <c:pt idx="32" c:formatCode="h:mm:ss">
+                  <c:v>0.0044212962962963</c:v>
+                </c:pt>
+                <c:pt idx="33" c:formatCode="h:mm:ss">
+                  <c:v>0.00453703703703704</c:v>
+                </c:pt>
+                <c:pt idx="34" c:formatCode="h:mm:ss">
+                  <c:v>0.00465277777777778</c:v>
+                </c:pt>
+                <c:pt idx="35" c:formatCode="h:mm:ss">
+                  <c:v>0.00476851851851852</c:v>
+                </c:pt>
+                <c:pt idx="36" c:formatCode="h:mm:ss">
+                  <c:v>0.00488425925925926</c:v>
+                </c:pt>
+                <c:pt idx="37" c:formatCode="h:mm:ss">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="38" c:formatCode="h:mm:ss">
+                  <c:v>0.00511574074074074</c:v>
+                </c:pt>
+                <c:pt idx="39" c:formatCode="h:mm:ss">
+                  <c:v>0.00523148148148148</c:v>
+                </c:pt>
+                <c:pt idx="40" c:formatCode="h:mm:ss">
+                  <c:v>0.00534722222222222</c:v>
+                </c:pt>
+                <c:pt idx="41" c:formatCode="h:mm:ss">
+                  <c:v>0.00546296296296296</c:v>
+                </c:pt>
+                <c:pt idx="42" c:formatCode="h:mm:ss">
+                  <c:v>0.0055787037037037</c:v>
+                </c:pt>
+                <c:pt idx="43" c:formatCode="h:mm:ss">
+                  <c:v>0.00569444444444444</c:v>
+                </c:pt>
+                <c:pt idx="44" c:formatCode="h:mm:ss">
+                  <c:v>0.00581018518518519</c:v>
+                </c:pt>
+                <c:pt idx="45" c:formatCode="h:mm:ss">
+                  <c:v>0.00592592592592593</c:v>
+                </c:pt>
+                <c:pt idx="46" c:formatCode="h:mm:ss">
+                  <c:v>0.00604166666666667</c:v>
+                </c:pt>
+                <c:pt idx="47" c:formatCode="h:mm:ss">
+                  <c:v>0.00615740740740741</c:v>
+                </c:pt>
+                <c:pt idx="48" c:formatCode="h:mm:ss">
+                  <c:v>0.00627314814814815</c:v>
+                </c:pt>
+                <c:pt idx="49" c:formatCode="h:mm:ss">
+                  <c:v>0.00638888888888889</c:v>
+                </c:pt>
+                <c:pt idx="50" c:formatCode="h:mm:ss">
+                  <c:v>0.00650462962962963</c:v>
+                </c:pt>
+                <c:pt idx="51" c:formatCode="h:mm:ss">
+                  <c:v>0.00662037037037037</c:v>
+                </c:pt>
+                <c:pt idx="52" c:formatCode="h:mm:ss">
+                  <c:v>0.00673611111111111</c:v>
+                </c:pt>
+                <c:pt idx="53" c:formatCode="h:mm:ss">
+                  <c:v>0.00685185185185185</c:v>
+                </c:pt>
+                <c:pt idx="54" c:formatCode="h:mm:ss">
+                  <c:v>0.00696759259259259</c:v>
+                </c:pt>
+                <c:pt idx="55" c:formatCode="h:mm:ss">
+                  <c:v>0.00708333333333333</c:v>
+                </c:pt>
+                <c:pt idx="56" c:formatCode="h:mm:ss">
+                  <c:v>0.00719907407407407</c:v>
+                </c:pt>
+                <c:pt idx="57" c:formatCode="h:mm:ss">
+                  <c:v>0.00731481481481481</c:v>
+                </c:pt>
+                <c:pt idx="58" c:formatCode="h:mm:ss">
+                  <c:v>0.00743055555555555</c:v>
+                </c:pt>
+                <c:pt idx="59" c:formatCode="h:mm:ss">
+                  <c:v>0.0075462962962963</c:v>
+                </c:pt>
+                <c:pt idx="60" c:formatCode="h:mm:ss">
+                  <c:v>0.00766203703703704</c:v>
+                </c:pt>
+                <c:pt idx="61" c:formatCode="h:mm:ss">
+                  <c:v>0.00777777777777778</c:v>
+                </c:pt>
+                <c:pt idx="62" c:formatCode="h:mm:ss">
+                  <c:v>0.00789351851851852</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$6:$E$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="63"/>
+                <c:pt idx="0">
+                  <c:v>5.13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.54</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.97</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.83</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.95</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.53</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.23</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.21</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.04</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.35</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.57</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.83</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.81</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.56</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.22</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.77</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10.55</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.47</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.98</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.33</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.52</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.89</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.12</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.39</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10.02</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10.18</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10.44</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.68</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.15</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10.59</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>10.85</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10.72</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10.28</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10.13</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10.44</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.94</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.81</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10.92</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>12.06</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>12.74</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>13.75</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>14.25</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>14.19</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>14.72</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>15.55</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>16.02</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>16.02</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>16.17</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>17.41</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>18.22</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>17.91</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>17.81</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>18.19</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>17.07</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>15.88</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>14.66</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>13.83</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="83811464"/>
+        <c:axId val="673787924"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="83811464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="673787924"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="673787924"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="83811464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>35560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>193040</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>35560</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="11051540" y="4424680"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -495,21 +2345,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AI70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="X8" sqref="X8"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="L20" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60:A63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -517,7 +2367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -531,7 +2381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -590,57 +2440,57 @@
         <v>23</v>
       </c>
       <c r="U4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="AD4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="AE4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="AF4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="AG4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Z4" s="2" t="s">
+      <c r="AH4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AA4" s="2" t="s">
+      <c r="AI4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AB4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AI4" s="2" t="s">
-        <v>46</v>
-      </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>0</v>
       </c>
       <c r="B6" s="1">
-        <v>0.44100694444444444</v>
+        <v>0.441006944444444</v>
       </c>
       <c r="C6">
         <v>67.22</v>
@@ -688,18 +2538,18 @@
         <v>46.68</v>
       </c>
       <c r="S6" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>8.3333333333333339E-4</v>
+        <v>0.000833333333333333</v>
       </c>
       <c r="B7" s="1">
-        <v>0.44184027777777773</v>
+        <v>0.441840277777778</v>
       </c>
       <c r="C7">
-        <v>73.790000000000006</v>
+        <v>73.79</v>
       </c>
       <c r="D7">
         <v>77.47</v>
@@ -729,7 +2579,7 @@
         <v>122.15</v>
       </c>
       <c r="M7">
-        <v>1079.1300000000001</v>
+        <v>1079.13</v>
       </c>
       <c r="N7">
         <v>1722.63</v>
@@ -744,15 +2594,15 @@
         <v>43.72</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>9.4907407407407408E-4</v>
+        <v>0.000949074074074074</v>
       </c>
       <c r="B8" s="1">
-        <v>0.44195601851851851</v>
+        <v>0.441956018518519</v>
       </c>
       <c r="C8">
-        <v>69.430000000000007</v>
+        <v>69.43</v>
       </c>
       <c r="D8">
         <v>79.86</v>
@@ -770,7 +2620,7 @@
         <v>429.82</v>
       </c>
       <c r="I8">
-        <v>143.77000000000001</v>
+        <v>143.77</v>
       </c>
       <c r="J8">
         <v>119.73</v>
@@ -797,12 +2647,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>1.0648148148148147E-3</v>
+        <v>0.00106481481481481</v>
       </c>
       <c r="B9" s="1">
-        <v>0.44207175925925929</v>
+        <v>0.442071759259259</v>
       </c>
       <c r="C9">
         <v>70.75</v>
@@ -844,27 +2694,27 @@
         <v>3.69</v>
       </c>
       <c r="P9">
-        <v>79.739999999999995</v>
+        <v>79.74</v>
       </c>
       <c r="Q9">
         <v>48.61</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>1.1805555555555556E-3</v>
+        <v>0.00118055555555556</v>
       </c>
       <c r="B10" s="1">
-        <v>0.44218750000000001</v>
+        <v>0.4421875</v>
       </c>
       <c r="C10">
-        <v>67.599999999999994</v>
+        <v>67.6</v>
       </c>
       <c r="D10">
-        <v>75.400000000000006</v>
+        <v>75.4</v>
       </c>
       <c r="E10">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="F10">
         <v>3.19</v>
@@ -876,7 +2726,7 @@
         <v>433.82</v>
       </c>
       <c r="I10">
-        <v>143.27000000000001</v>
+        <v>143.27</v>
       </c>
       <c r="J10">
         <v>119.73</v>
@@ -897,24 +2747,24 @@
         <v>3.41</v>
       </c>
       <c r="P10">
-        <v>80.239999999999995</v>
+        <v>80.24</v>
       </c>
       <c r="Q10">
         <v>47.62</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>1.2962962962962963E-3</v>
+        <v>0.0012962962962963</v>
       </c>
       <c r="B11" s="1">
-        <v>0.44230324074074073</v>
+        <v>0.442303240740741</v>
       </c>
       <c r="C11">
         <v>72.97</v>
       </c>
       <c r="D11">
-        <v>77.319999999999993</v>
+        <v>77.32</v>
       </c>
       <c r="E11">
         <v>5.64</v>
@@ -956,12 +2806,12 @@
         <v>47.98</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>1.4120370370370369E-3</v>
+        <v>0.00141203703703704</v>
       </c>
       <c r="B12" s="1">
-        <v>0.44241898148148145</v>
+        <v>0.442418981481481</v>
       </c>
       <c r="C12">
         <v>77.34</v>
@@ -1003,21 +2853,21 @@
         <v>3.97</v>
       </c>
       <c r="P12">
-        <v>75.709999999999994</v>
+        <v>75.71</v>
       </c>
       <c r="Q12">
         <v>46.72</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>1.5277777777777779E-3</v>
+        <v>0.00152777777777778</v>
       </c>
       <c r="B13" s="1">
-        <v>0.44253472222222223</v>
+        <v>0.442534722222222</v>
       </c>
       <c r="C13">
-        <v>73.760000000000005</v>
+        <v>73.76</v>
       </c>
       <c r="D13">
         <v>79.09</v>
@@ -1029,7 +2879,7 @@
         <v>3.65</v>
       </c>
       <c r="G13">
-        <v>64.260000000000005</v>
+        <v>64.26</v>
       </c>
       <c r="H13">
         <v>441.85</v>
@@ -1056,21 +2906,21 @@
         <v>3.97</v>
       </c>
       <c r="P13">
-        <v>79.650000000000006</v>
+        <v>79.65</v>
       </c>
       <c r="Q13">
         <v>43.01</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>1.6435185185185183E-3</v>
+        <v>0.00164351851851852</v>
       </c>
       <c r="B14" s="1">
-        <v>0.44265046296296301</v>
+        <v>0.442650462962963</v>
       </c>
       <c r="C14">
-        <v>74.400000000000006</v>
+        <v>74.4</v>
       </c>
       <c r="D14">
         <v>79.95</v>
@@ -1100,13 +2950,13 @@
         <v>122.23</v>
       </c>
       <c r="M14">
-        <v>1071.5899999999999</v>
+        <v>1071.59</v>
       </c>
       <c r="N14">
         <v>1710.61</v>
       </c>
       <c r="O14">
-        <v>4.1100000000000003</v>
+        <v>4.11</v>
       </c>
       <c r="P14">
         <v>91.91</v>
@@ -1115,12 +2965,12 @@
         <v>44.62</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>1.7592592592592592E-3</v>
+        <v>0.00175925925925926</v>
       </c>
       <c r="B15" s="1">
-        <v>0.44276620370370368</v>
+        <v>0.442766203703704</v>
       </c>
       <c r="C15">
         <v>68.67</v>
@@ -1168,15 +3018,15 @@
         <v>47.28</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>1.8750000000000001E-3</v>
+        <v>0.001875</v>
       </c>
       <c r="B16" s="1">
-        <v>0.44288194444444445</v>
+        <v>0.442881944444444</v>
       </c>
       <c r="C16">
-        <v>66.459999999999994</v>
+        <v>66.46</v>
       </c>
       <c r="D16">
         <v>78.64</v>
@@ -1221,12 +3071,12 @@
         <v>50.41</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
-        <v>1.9907407407407408E-3</v>
+        <v>0.00199074074074074</v>
       </c>
       <c r="B17" s="1">
-        <v>0.44299768518518517</v>
+        <v>0.442997685185185</v>
       </c>
       <c r="C17">
         <v>66.25</v>
@@ -1274,18 +3124,18 @@
         <v>44.99</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
-        <v>2.1064814814814813E-3</v>
+        <v>0.00210648148148148</v>
       </c>
       <c r="B18" s="1">
-        <v>0.44311342592592595</v>
+        <v>0.443113425925926</v>
       </c>
       <c r="C18">
         <v>64.55</v>
       </c>
       <c r="D18">
-        <v>78.150000000000006</v>
+        <v>78.15</v>
       </c>
       <c r="E18">
         <v>5.04</v>
@@ -1294,13 +3144,13 @@
         <v>3.16</v>
       </c>
       <c r="G18">
-        <v>64.430000000000007</v>
+        <v>64.43</v>
       </c>
       <c r="H18">
         <v>444.8</v>
       </c>
       <c r="I18">
-        <v>152.77000000000001</v>
+        <v>152.77</v>
       </c>
       <c r="J18">
         <v>121.3</v>
@@ -1312,7 +3162,7 @@
         <v>121.29</v>
       </c>
       <c r="M18">
-        <v>1249.8399999999999</v>
+        <v>1249.84</v>
       </c>
       <c r="N18">
         <v>1995.14</v>
@@ -1327,12 +3177,12 @@
         <v>45.78</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
-        <v>2.2222222222222222E-3</v>
+        <v>0.00222222222222222</v>
       </c>
       <c r="B19" s="1">
-        <v>0.44322916666666662</v>
+        <v>0.443229166666667</v>
       </c>
       <c r="C19">
         <v>66.55</v>
@@ -1380,12 +3230,12 @@
         <v>47.12</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
-        <v>2.3379629629629631E-3</v>
+        <v>0.00233796296296296</v>
       </c>
       <c r="B20" s="1">
-        <v>0.4433449074074074</v>
+        <v>0.443344907407407</v>
       </c>
       <c r="C20">
         <v>69.25</v>
@@ -1400,13 +3250,13 @@
         <v>3.49</v>
       </c>
       <c r="G20">
-        <v>64.739999999999995</v>
+        <v>64.74</v>
       </c>
       <c r="H20">
         <v>426.67</v>
       </c>
       <c r="I20">
-        <v>155.69999999999999</v>
+        <v>155.7</v>
       </c>
       <c r="J20">
         <v>121.75</v>
@@ -1433,12 +3283,12 @@
         <v>46.21</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35">
       <c r="A21" s="1">
-        <v>2.4537037037037036E-3</v>
+        <v>0.0024537037037037</v>
       </c>
       <c r="B21" s="1">
-        <v>0.44346064814814817</v>
+        <v>0.443460648148148</v>
       </c>
       <c r="C21">
         <v>74.22</v>
@@ -1453,7 +3303,7 @@
         <v>3.65</v>
       </c>
       <c r="G21">
-        <v>64.430000000000007</v>
+        <v>64.43</v>
       </c>
       <c r="H21">
         <v>414</v>
@@ -1486,35 +3336,35 @@
         <v>45.33</v>
       </c>
       <c r="S21" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="U21" s="2">
         <f>AVERAGE(C6:C21)</f>
-        <v>70.200624999999988</v>
+        <v>70.200625</v>
       </c>
       <c r="V21" s="2">
         <f t="shared" ref="V21:AI21" si="0">AVERAGE(D6:D21)</f>
-        <v>78.496875000000003</v>
+        <v>78.496875</v>
       </c>
       <c r="W21" s="2">
         <f t="shared" si="0"/>
-        <v>5.511874999999999</v>
+        <v>5.511875</v>
       </c>
       <c r="X21" s="2">
         <f t="shared" si="0"/>
-        <v>3.4506250000000001</v>
+        <v>3.450625</v>
       </c>
       <c r="Y21" s="2">
         <f t="shared" si="0"/>
-        <v>63.938125000000014</v>
+        <v>63.938125</v>
       </c>
       <c r="Z21" s="2">
         <f t="shared" si="0"/>
-        <v>430.07062500000001</v>
+        <v>430.070625</v>
       </c>
       <c r="AA21" s="2">
         <f t="shared" si="0"/>
-        <v>148.27687499999996</v>
+        <v>148.276875</v>
       </c>
       <c r="AB21" s="2">
         <f t="shared" si="0"/>
@@ -1522,11 +3372,11 @@
       </c>
       <c r="AC21" s="2">
         <f t="shared" si="0"/>
-        <v>66.896250000000009</v>
+        <v>66.89625</v>
       </c>
       <c r="AD21" s="2">
         <f t="shared" si="0"/>
-        <v>122.77374999999999</v>
+        <v>122.77375</v>
       </c>
       <c r="AE21" s="2">
         <f t="shared" si="0"/>
@@ -1534,27 +3384,27 @@
       </c>
       <c r="AF21" s="2">
         <f t="shared" si="0"/>
-        <v>1819.7718750000001</v>
+        <v>1819.771875</v>
       </c>
       <c r="AG21" s="2">
         <f t="shared" si="0"/>
-        <v>3.7350000000000003</v>
+        <v>3.735</v>
       </c>
       <c r="AH21" s="2">
         <f t="shared" si="0"/>
-        <v>82.478750000000005</v>
+        <v>82.47875</v>
       </c>
       <c r="AI21" s="2">
         <f t="shared" si="0"/>
         <v>46.38</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35">
       <c r="A22" s="1">
-        <v>2.5694444444444445E-3</v>
+        <v>0.00256944444444444</v>
       </c>
       <c r="B22" s="1">
-        <v>0.4435763888888889</v>
+        <v>0.443576388888889</v>
       </c>
       <c r="C22">
         <v>75.11</v>
@@ -1596,7 +3446,7 @@
         <v>3.95</v>
       </c>
       <c r="P22">
-        <v>77.040000000000006</v>
+        <v>77.04</v>
       </c>
       <c r="Q22">
         <v>44.31</v>
@@ -1617,15 +3467,15 @@
       <c r="AH22" s="2"/>
       <c r="AI22" s="2"/>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35">
       <c r="A23" s="1">
-        <v>2.685185185185185E-3</v>
+        <v>0.00268518518518518</v>
       </c>
       <c r="B23" s="1">
-        <v>0.44369212962962962</v>
+        <v>0.44369212962963</v>
       </c>
       <c r="C23">
-        <v>75.150000000000006</v>
+        <v>75.15</v>
       </c>
       <c r="D23">
         <v>77.27</v>
@@ -1685,27 +3535,27 @@
       <c r="AH23" s="2"/>
       <c r="AI23" s="2"/>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35">
       <c r="A24" s="1">
-        <v>2.8009259259259259E-3</v>
+        <v>0.00280092592592593</v>
       </c>
       <c r="B24" s="1">
-        <v>0.44380787037037034</v>
+        <v>0.44380787037037</v>
       </c>
       <c r="C24">
-        <v>81.650000000000006</v>
+        <v>81.65</v>
       </c>
       <c r="D24">
-        <v>80.150000000000006</v>
+        <v>80.15</v>
       </c>
       <c r="E24">
         <v>6.56</v>
       </c>
       <c r="F24">
-        <v>4.1100000000000003</v>
+        <v>4.11</v>
       </c>
       <c r="G24">
-        <v>65.319999999999993</v>
+        <v>65.32</v>
       </c>
       <c r="H24">
         <v>401.14</v>
@@ -1729,7 +3579,7 @@
         <v>1527.84</v>
       </c>
       <c r="O24">
-        <v>4.3899999999999997</v>
+        <v>4.39</v>
       </c>
       <c r="P24">
         <v>73.58</v>
@@ -1738,7 +3588,7 @@
         <v>40.49</v>
       </c>
       <c r="S24" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
@@ -1756,12 +3606,12 @@
       <c r="AH24" s="2"/>
       <c r="AI24" s="2"/>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35">
       <c r="A25" s="1">
-        <v>2.9166666666666668E-3</v>
+        <v>0.00291666666666667</v>
       </c>
       <c r="B25" s="1">
-        <v>0.44392361111111112</v>
+        <v>0.443923611111111</v>
       </c>
       <c r="C25">
         <v>95.31</v>
@@ -1770,13 +3620,13 @@
         <v>86</v>
       </c>
       <c r="E25">
-        <v>8.2200000000000006</v>
+        <v>8.22</v>
       </c>
       <c r="F25">
         <v>5.15</v>
       </c>
       <c r="G25">
-        <v>66.599999999999994</v>
+        <v>66.6</v>
       </c>
       <c r="H25">
         <v>396.53</v>
@@ -1791,7 +3641,7 @@
         <v>64.2</v>
       </c>
       <c r="L25">
-        <v>129.08000000000001</v>
+        <v>129.08</v>
       </c>
       <c r="M25">
         <v>760.84</v>
@@ -1824,12 +3674,12 @@
       <c r="AH25" s="2"/>
       <c r="AI25" s="2"/>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35">
       <c r="A26" s="1">
-        <v>3.0324074074074073E-3</v>
+        <v>0.00303240740740741</v>
       </c>
       <c r="B26" s="1">
-        <v>0.44403935185185189</v>
+        <v>0.444039351851852</v>
       </c>
       <c r="C26">
         <v>109.71</v>
@@ -1892,12 +3742,12 @@
       <c r="AH26" s="2"/>
       <c r="AI26" s="2"/>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35">
       <c r="A27" s="1">
-        <v>3.1481481481481482E-3</v>
+        <v>0.00314814814814815</v>
       </c>
       <c r="B27" s="1">
-        <v>0.44415509259259256</v>
+        <v>0.444155092592593</v>
       </c>
       <c r="C27">
         <v>115.12</v>
@@ -1927,10 +3777,10 @@
         <v>61.47</v>
       </c>
       <c r="L27">
-        <v>135.52000000000001</v>
+        <v>135.52</v>
       </c>
       <c r="M27">
-        <v>576.91999999999996</v>
+        <v>576.92</v>
       </c>
       <c r="N27">
         <v>920.95</v>
@@ -1939,10 +3789,10 @@
         <v>6.95</v>
       </c>
       <c r="P27">
-        <v>66.959999999999994</v>
+        <v>66.96</v>
       </c>
       <c r="Q27">
-        <v>40.700000000000003</v>
+        <v>40.7</v>
       </c>
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
@@ -1960,12 +3810,12 @@
       <c r="AH27" s="2"/>
       <c r="AI27" s="2"/>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35">
       <c r="A28" s="1">
-        <v>3.2638888888888891E-3</v>
+        <v>0.00326388888888889</v>
       </c>
       <c r="B28" s="1">
-        <v>0.44427083333333334</v>
+        <v>0.444270833333333</v>
       </c>
       <c r="C28">
         <v>108.31</v>
@@ -1974,7 +3824,7 @@
         <v>87.41</v>
       </c>
       <c r="E28">
-        <v>9.4700000000000006</v>
+        <v>9.47</v>
       </c>
       <c r="F28">
         <v>5.93</v>
@@ -2028,12 +3878,12 @@
       <c r="AH28" s="2"/>
       <c r="AI28" s="2"/>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35">
       <c r="A29" s="1">
-        <v>3.37962962962963E-3</v>
+        <v>0.00337962962962963</v>
       </c>
       <c r="B29" s="1">
-        <v>0.44438657407407406</v>
+        <v>0.444386574074074</v>
       </c>
       <c r="C29">
         <v>105.69</v>
@@ -2096,12 +3946,12 @@
       <c r="AH29" s="2"/>
       <c r="AI29" s="2"/>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35">
       <c r="A30" s="1">
-        <v>3.4953703703703705E-3</v>
+        <v>0.00349537037037037</v>
       </c>
       <c r="B30" s="1">
-        <v>0.44450231481481484</v>
+        <v>0.444502314814815</v>
       </c>
       <c r="C30">
         <v>110.69</v>
@@ -2164,12 +4014,12 @@
       <c r="AH30" s="2"/>
       <c r="AI30" s="2"/>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35">
       <c r="A31" s="1">
-        <v>3.6111111111111114E-3</v>
+        <v>0.00361111111111111</v>
       </c>
       <c r="B31" s="1">
-        <v>0.4446180555555555</v>
+        <v>0.444618055555556</v>
       </c>
       <c r="C31">
         <v>107.11</v>
@@ -2214,7 +4064,7 @@
         <v>77.13</v>
       </c>
       <c r="Q31">
-        <v>39.700000000000003</v>
+        <v>39.7</v>
       </c>
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
@@ -2232,12 +4082,12 @@
       <c r="AH31" s="2"/>
       <c r="AI31" s="2"/>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35">
       <c r="A32" s="1">
-        <v>3.7268518518518514E-3</v>
+        <v>0.00372685185185185</v>
       </c>
       <c r="B32" s="1">
-        <v>0.44473379629629628</v>
+        <v>0.444733796296296</v>
       </c>
       <c r="C32">
         <v>110.31</v>
@@ -2282,7 +4132,7 @@
         <v>71.78</v>
       </c>
       <c r="Q32">
-        <v>35.880000000000003</v>
+        <v>35.88</v>
       </c>
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
@@ -2300,12 +4150,12 @@
       <c r="AH32" s="2"/>
       <c r="AI32" s="2"/>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35">
       <c r="A33" s="1">
-        <v>3.8425925925925923E-3</v>
+        <v>0.00384259259259259</v>
       </c>
       <c r="B33" s="1">
-        <v>0.44484953703703706</v>
+        <v>0.444849537037037</v>
       </c>
       <c r="C33">
         <v>107.87</v>
@@ -2314,7 +4164,7 @@
         <v>84.6</v>
       </c>
       <c r="E33">
-        <v>9.1199999999999992</v>
+        <v>9.12</v>
       </c>
       <c r="F33">
         <v>5.71</v>
@@ -2347,7 +4197,7 @@
         <v>5.73</v>
       </c>
       <c r="P33">
-        <v>73.849999999999994</v>
+        <v>73.85</v>
       </c>
       <c r="Q33">
         <v>36.83</v>
@@ -2368,12 +4218,12 @@
       <c r="AH33" s="2"/>
       <c r="AI33" s="2"/>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35">
       <c r="A34" s="1">
-        <v>3.9583333333333337E-3</v>
+        <v>0.00395833333333333</v>
       </c>
       <c r="B34" s="1">
-        <v>0.44496527777777778</v>
+        <v>0.444965277777778</v>
       </c>
       <c r="C34">
         <v>103.42</v>
@@ -2409,7 +4259,7 @@
         <v>656.76</v>
       </c>
       <c r="N34">
-        <v>1048.4000000000001</v>
+        <v>1048.4</v>
       </c>
       <c r="O34">
         <v>6.27</v>
@@ -2436,12 +4286,12 @@
       <c r="AH34" s="2"/>
       <c r="AI34" s="2"/>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35">
       <c r="A35" s="1">
-        <v>4.0740740740740746E-3</v>
+        <v>0.00407407407407407</v>
       </c>
       <c r="B35" s="1">
-        <v>0.4450810185185185</v>
+        <v>0.445081018518519</v>
       </c>
       <c r="C35">
         <v>109.02</v>
@@ -2504,12 +4354,12 @@
       <c r="AH35" s="2"/>
       <c r="AI35" s="2"/>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35">
       <c r="A36" s="1">
-        <v>4.1898148148148146E-3</v>
+        <v>0.00418981481481481</v>
       </c>
       <c r="B36" s="1">
-        <v>0.44519675925925922</v>
+        <v>0.445196759259259</v>
       </c>
       <c r="C36">
         <v>112.4</v>
@@ -2533,7 +4383,7 @@
         <v>202.72</v>
       </c>
       <c r="J36">
-        <v>128.94999999999999</v>
+        <v>128.95</v>
       </c>
       <c r="K36">
         <v>55.74</v>
@@ -2542,7 +4392,7 @@
         <v>131</v>
       </c>
       <c r="M36">
-        <v>575.58000000000004</v>
+        <v>575.58</v>
       </c>
       <c r="N36">
         <v>918.81</v>
@@ -2551,7 +4401,7 @@
         <v>6.44</v>
       </c>
       <c r="P36">
-        <v>75.599999999999994</v>
+        <v>75.6</v>
       </c>
       <c r="Q36">
         <v>43.52</v>
@@ -2572,9 +4422,9 @@
       <c r="AH36" s="2"/>
       <c r="AI36" s="2"/>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35">
       <c r="A37" s="1">
-        <v>4.3055555555555555E-3</v>
+        <v>0.00430555555555556</v>
       </c>
       <c r="B37" s="1">
         <v>0.4453125</v>
@@ -2610,7 +4460,7 @@
         <v>134.16</v>
       </c>
       <c r="M37">
-        <v>553.29999999999995</v>
+        <v>553.3</v>
       </c>
       <c r="N37">
         <v>883.25</v>
@@ -2622,7 +4472,7 @@
         <v>57.47</v>
       </c>
       <c r="Q37">
-        <v>39.409999999999997</v>
+        <v>39.41</v>
       </c>
       <c r="U37" s="2"/>
       <c r="V37" s="2"/>
@@ -2640,12 +4490,12 @@
       <c r="AH37" s="2"/>
       <c r="AI37" s="2"/>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35">
       <c r="A38" s="1">
-        <v>4.4212962962962956E-3</v>
+        <v>0.0044212962962963</v>
       </c>
       <c r="B38" s="1">
-        <v>0.44542824074074078</v>
+        <v>0.445428240740741</v>
       </c>
       <c r="C38">
         <v>107.15</v>
@@ -2675,7 +4525,7 @@
         <v>58.67</v>
       </c>
       <c r="L38">
-        <v>131.63999999999999</v>
+        <v>131.64</v>
       </c>
       <c r="M38">
         <v>616.25</v>
@@ -2708,12 +4558,12 @@
       <c r="AH38" s="2"/>
       <c r="AI38" s="2"/>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35">
       <c r="A39" s="1">
-        <v>4.5370370370370365E-3</v>
+        <v>0.00453703703703704</v>
       </c>
       <c r="B39" s="1">
-        <v>0.4455439814814815</v>
+        <v>0.445543981481481</v>
       </c>
       <c r="C39">
         <v>98.77</v>
@@ -2776,12 +4626,12 @@
       <c r="AH39" s="2"/>
       <c r="AI39" s="2"/>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35">
       <c r="A40" s="1">
-        <v>4.6527777777777774E-3</v>
+        <v>0.00465277777777778</v>
       </c>
       <c r="B40" s="1">
-        <v>0.44565972222222222</v>
+        <v>0.445659722222222</v>
       </c>
       <c r="C40">
         <v>111.42</v>
@@ -2796,7 +4646,7 @@
         <v>6.63</v>
       </c>
       <c r="G40">
-        <v>68.569999999999993</v>
+        <v>68.57</v>
       </c>
       <c r="H40">
         <v>338.67</v>
@@ -2811,7 +4661,7 @@
         <v>56</v>
       </c>
       <c r="L40">
-        <v>138.61000000000001</v>
+        <v>138.61</v>
       </c>
       <c r="M40">
         <v>553.34</v>
@@ -2844,12 +4694,12 @@
       <c r="AH40" s="2"/>
       <c r="AI40" s="2"/>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35">
       <c r="A41" s="1">
-        <v>4.7685185185185183E-3</v>
+        <v>0.00476851851851852</v>
       </c>
       <c r="B41" s="1">
-        <v>0.44577546296296294</v>
+        <v>0.445775462962963</v>
       </c>
       <c r="C41">
         <v>118.2</v>
@@ -2912,12 +4762,12 @@
       <c r="AH41" s="2"/>
       <c r="AI41" s="2"/>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35">
       <c r="A42" s="1">
-        <v>4.8842592592592592E-3</v>
+        <v>0.00488425925925926</v>
       </c>
       <c r="B42" s="1">
-        <v>0.44589120370370372</v>
+        <v>0.445891203703704</v>
       </c>
       <c r="C42">
         <v>120.83</v>
@@ -2932,7 +4782,7 @@
         <v>6.72</v>
       </c>
       <c r="G42">
-        <v>69.290000000000006</v>
+        <v>69.29</v>
       </c>
       <c r="H42">
         <v>374.4</v>
@@ -2980,12 +4830,12 @@
       <c r="AH42" s="2"/>
       <c r="AI42" s="2"/>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35">
       <c r="A43" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="B43" s="1">
-        <v>0.4460069444444445</v>
+        <v>0.446006944444444</v>
       </c>
       <c r="C43">
         <v>114.85</v>
@@ -3018,7 +4868,7 @@
         <v>124.14</v>
       </c>
       <c r="M43">
-        <v>602.05999999999995</v>
+        <v>602.06</v>
       </c>
       <c r="N43">
         <v>961.08</v>
@@ -3027,7 +4877,7 @@
         <v>6.89</v>
       </c>
       <c r="P43">
-        <v>77.239999999999995</v>
+        <v>77.24</v>
       </c>
       <c r="Q43">
         <v>25.14</v>
@@ -3048,12 +4898,12 @@
       <c r="AH43" s="2"/>
       <c r="AI43" s="2"/>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35">
       <c r="A44" s="1">
-        <v>5.115740740740741E-3</v>
+        <v>0.00511574074074074</v>
       </c>
       <c r="B44" s="1">
-        <v>0.44612268518518516</v>
+        <v>0.446122685185185</v>
       </c>
       <c r="C44">
         <v>109.25</v>
@@ -3062,13 +4912,13 @@
         <v>92.79</v>
       </c>
       <c r="E44">
-        <v>10.130000000000001</v>
+        <v>10.13</v>
       </c>
       <c r="F44">
         <v>6.35</v>
       </c>
       <c r="G44">
-        <v>70.900000000000006</v>
+        <v>70.9</v>
       </c>
       <c r="H44">
         <v>370.44</v>
@@ -3116,12 +4966,12 @@
       <c r="AH44" s="2"/>
       <c r="AI44" s="2"/>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35">
       <c r="A45" s="1">
-        <v>5.2314814814814819E-3</v>
+        <v>0.00523148148148148</v>
       </c>
       <c r="B45" s="1">
-        <v>0.44623842592592594</v>
+        <v>0.446238425925926</v>
       </c>
       <c r="C45">
         <v>110.46</v>
@@ -3136,7 +4986,7 @@
         <v>6.54</v>
       </c>
       <c r="G45">
-        <v>70.959999999999994</v>
+        <v>70.96</v>
       </c>
       <c r="H45">
         <v>373.47</v>
@@ -3151,10 +5001,10 @@
         <v>61.32</v>
       </c>
       <c r="L45">
-        <v>133.19999999999999</v>
+        <v>133.2</v>
       </c>
       <c r="M45">
-        <v>595.32000000000005</v>
+        <v>595.32</v>
       </c>
       <c r="N45">
         <v>950.32</v>
@@ -3184,12 +5034,12 @@
       <c r="AH45" s="2"/>
       <c r="AI45" s="2"/>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:35">
       <c r="A46" s="1">
-        <v>5.347222222222222E-3</v>
+        <v>0.00534722222222222</v>
       </c>
       <c r="B46" s="1">
-        <v>0.44635416666666666</v>
+        <v>0.446354166666667</v>
       </c>
       <c r="C46">
         <v>106.82</v>
@@ -3204,7 +5054,7 @@
         <v>6.23</v>
       </c>
       <c r="G46">
-        <v>71.319999999999993</v>
+        <v>71.32</v>
       </c>
       <c r="H46">
         <v>400</v>
@@ -3219,10 +5069,10 @@
         <v>61.53</v>
       </c>
       <c r="L46">
-        <v>130.63999999999999</v>
+        <v>130.64</v>
       </c>
       <c r="M46">
-        <v>631.20000000000005</v>
+        <v>631.2</v>
       </c>
       <c r="N46">
         <v>1007.59</v>
@@ -3237,7 +5087,7 @@
         <v>46.11</v>
       </c>
       <c r="S46" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="U46" s="2"/>
       <c r="V46" s="2"/>
@@ -3255,12 +5105,12 @@
       <c r="AH46" s="2"/>
       <c r="AI46" s="2"/>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35">
       <c r="A47" s="1">
-        <v>5.4629629629629637E-3</v>
+        <v>0.00546296296296296</v>
       </c>
       <c r="B47" s="1">
-        <v>0.44646990740740744</v>
+        <v>0.446469907407407</v>
       </c>
       <c r="C47">
         <v>103.77</v>
@@ -3290,7 +5140,7 @@
         <v>60</v>
       </c>
       <c r="L47">
-        <v>130.86000000000001</v>
+        <v>130.86</v>
       </c>
       <c r="M47">
         <v>631.71</v>
@@ -3323,12 +5173,12 @@
       <c r="AH47" s="2"/>
       <c r="AI47" s="2"/>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35">
       <c r="A48" s="1">
-        <v>5.5787037037037038E-3</v>
+        <v>0.0055787037037037</v>
       </c>
       <c r="B48" s="1">
-        <v>0.44658564814814811</v>
+        <v>0.446585648148148</v>
       </c>
       <c r="C48">
         <v>113.57</v>
@@ -3343,7 +5193,7 @@
         <v>6.84</v>
       </c>
       <c r="G48">
-        <v>71.010000000000005</v>
+        <v>71.01</v>
       </c>
       <c r="H48">
         <v>312.44</v>
@@ -3358,10 +5208,10 @@
         <v>57.22</v>
       </c>
       <c r="L48">
-        <v>135.47999999999999</v>
+        <v>135.48</v>
       </c>
       <c r="M48">
-        <v>553.55999999999995</v>
+        <v>553.56</v>
       </c>
       <c r="N48">
         <v>883.67</v>
@@ -3373,7 +5223,7 @@
         <v>109.78</v>
       </c>
       <c r="Q48">
-        <v>39.159999999999997</v>
+        <v>39.16</v>
       </c>
       <c r="U48" s="2"/>
       <c r="V48" s="2"/>
@@ -3391,12 +5241,12 @@
       <c r="AH48" s="2"/>
       <c r="AI48" s="2"/>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:35">
       <c r="A49" s="1">
-        <v>5.6944444444444438E-3</v>
+        <v>0.00569444444444444</v>
       </c>
       <c r="B49" s="1">
-        <v>0.44670138888888888</v>
+        <v>0.446701388888889</v>
       </c>
       <c r="C49">
         <v>122.77</v>
@@ -3411,10 +5261,10 @@
         <v>7.56</v>
       </c>
       <c r="G49">
-        <v>70.819999999999993</v>
+        <v>70.82</v>
       </c>
       <c r="H49">
-        <v>289.70999999999998</v>
+        <v>289.71</v>
       </c>
       <c r="I49">
         <v>223.18</v>
@@ -3459,15 +5309,15 @@
       <c r="AH49" s="2"/>
       <c r="AI49" s="2"/>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35">
       <c r="A50" s="1">
-        <v>5.8101851851851856E-3</v>
+        <v>0.00581018518518519</v>
       </c>
       <c r="B50" s="1">
-        <v>0.44681712962962966</v>
+        <v>0.44681712962963</v>
       </c>
       <c r="C50">
-        <v>129.33000000000001</v>
+        <v>129.33</v>
       </c>
       <c r="D50">
         <v>98.53</v>
@@ -3479,7 +5329,7 @@
         <v>7.98</v>
       </c>
       <c r="G50">
-        <v>71.180000000000007</v>
+        <v>71.18</v>
       </c>
       <c r="H50">
         <v>326.48</v>
@@ -3503,7 +5353,7 @@
         <v>761.64</v>
       </c>
       <c r="O50">
-        <v>8.3800000000000008</v>
+        <v>8.38</v>
       </c>
       <c r="P50">
         <v>85.59</v>
@@ -3512,7 +5362,7 @@
         <v>44.97</v>
       </c>
       <c r="S50" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="U50" s="2"/>
       <c r="V50" s="2"/>
@@ -3530,12 +5380,12 @@
       <c r="AH50" s="2"/>
       <c r="AI50" s="2"/>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:35">
       <c r="A51" s="1">
-        <v>5.9259259259259256E-3</v>
+        <v>0.00592592592592593</v>
       </c>
       <c r="B51" s="1">
-        <v>0.44693287037037038</v>
+        <v>0.44693287037037</v>
       </c>
       <c r="C51">
         <v>143.13</v>
@@ -3550,7 +5400,7 @@
         <v>8.65</v>
       </c>
       <c r="G51">
-        <v>70.760000000000005</v>
+        <v>70.76</v>
       </c>
       <c r="H51">
         <v>294.5</v>
@@ -3598,12 +5448,12 @@
       <c r="AH51" s="2"/>
       <c r="AI51" s="2"/>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35">
       <c r="A52" s="1">
-        <v>6.0416666666666665E-3</v>
+        <v>0.00604166666666667</v>
       </c>
       <c r="B52" s="1">
-        <v>0.4470486111111111</v>
+        <v>0.447048611111111</v>
       </c>
       <c r="C52">
         <v>143.44</v>
@@ -3615,7 +5465,7 @@
         <v>13.75</v>
       </c>
       <c r="F52">
-        <v>8.6199999999999992</v>
+        <v>8.62</v>
       </c>
       <c r="G52">
         <v>72.05</v>
@@ -3627,19 +5477,19 @@
         <v>239.06</v>
       </c>
       <c r="J52">
-        <v>133.58000000000001</v>
+        <v>133.58</v>
       </c>
       <c r="K52">
         <v>48</v>
       </c>
       <c r="L52">
-        <v>133.08000000000001</v>
+        <v>133.08</v>
       </c>
       <c r="M52">
         <v>404.56</v>
       </c>
       <c r="N52">
-        <v>645.80999999999995</v>
+        <v>645.81</v>
       </c>
       <c r="O52">
         <v>8.25</v>
@@ -3666,12 +5516,12 @@
       <c r="AH52" s="2"/>
       <c r="AI52" s="2"/>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35">
       <c r="A53" s="1">
-        <v>6.1574074074074074E-3</v>
+        <v>0.00615740740740741</v>
       </c>
       <c r="B53" s="1">
-        <v>0.44716435185185183</v>
+        <v>0.447164351851852</v>
       </c>
       <c r="C53">
         <v>145.79</v>
@@ -3719,7 +5569,7 @@
         <v>46.04</v>
       </c>
       <c r="S53" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="U53" s="2"/>
       <c r="V53" s="2"/>
@@ -3737,15 +5587,15 @@
       <c r="AH53" s="2"/>
       <c r="AI53" s="2"/>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35">
       <c r="A54" s="1">
-        <v>6.2731481481481484E-3</v>
+        <v>0.00627314814814815</v>
       </c>
       <c r="B54" s="1">
-        <v>0.4472800925925926</v>
+        <v>0.447280092592593</v>
       </c>
       <c r="C54">
-        <v>152.72999999999999</v>
+        <v>152.73</v>
       </c>
       <c r="D54">
         <v>92.96</v>
@@ -3757,7 +5607,7 @@
         <v>8.89</v>
       </c>
       <c r="G54">
-        <v>69.069999999999993</v>
+        <v>69.07</v>
       </c>
       <c r="H54">
         <v>260.92</v>
@@ -3766,19 +5616,19 @@
         <v>201.96</v>
       </c>
       <c r="J54">
-        <v>130.27000000000001</v>
+        <v>130.27</v>
       </c>
       <c r="K54">
         <v>46.46</v>
       </c>
       <c r="L54">
-        <v>134.58000000000001</v>
+        <v>134.58</v>
       </c>
       <c r="M54">
         <v>380.06</v>
       </c>
       <c r="N54">
-        <v>606.70000000000005</v>
+        <v>606.7</v>
       </c>
       <c r="O54">
         <v>8.25</v>
@@ -3805,12 +5655,12 @@
       <c r="AH54" s="2"/>
       <c r="AI54" s="2"/>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35">
       <c r="A55" s="1">
-        <v>6.3888888888888884E-3</v>
+        <v>0.00638888888888889</v>
       </c>
       <c r="B55" s="1">
-        <v>0.44739583333333338</v>
+        <v>0.447395833333333</v>
       </c>
       <c r="C55">
         <v>156.41</v>
@@ -3822,7 +5672,7 @@
         <v>14.72</v>
       </c>
       <c r="F55">
-        <v>9.2200000000000006</v>
+        <v>9.22</v>
       </c>
       <c r="G55">
         <v>69.7</v>
@@ -3846,10 +5696,10 @@
         <v>363.14</v>
       </c>
       <c r="N55">
-        <v>579.67999999999995</v>
+        <v>579.68</v>
       </c>
       <c r="O55">
-        <v>8.4700000000000006</v>
+        <v>8.47</v>
       </c>
       <c r="P55">
         <v>68.03</v>
@@ -3873,15 +5723,15 @@
       <c r="AH55" s="2"/>
       <c r="AI55" s="2"/>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35">
       <c r="A56" s="1">
-        <v>6.5046296296296302E-3</v>
+        <v>0.00650462962962963</v>
       </c>
       <c r="B56" s="1">
-        <v>0.44751157407407405</v>
+        <v>0.447511574074074</v>
       </c>
       <c r="C56">
-        <v>159.33000000000001</v>
+        <v>159.33</v>
       </c>
       <c r="D56">
         <v>97.57</v>
@@ -3908,7 +5758,7 @@
         <v>45</v>
       </c>
       <c r="L56">
-        <v>138.80000000000001</v>
+        <v>138.8</v>
       </c>
       <c r="M56">
         <v>345.79</v>
@@ -3941,12 +5791,12 @@
       <c r="AH56" s="2"/>
       <c r="AI56" s="2"/>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:35">
       <c r="A57" s="1">
-        <v>6.6203703703703702E-3</v>
+        <v>0.00662037037037037</v>
       </c>
       <c r="B57" s="1">
-        <v>0.44762731481481483</v>
+        <v>0.447627314814815</v>
       </c>
       <c r="C57">
         <v>160.28</v>
@@ -3958,7 +5808,7 @@
         <v>16.02</v>
       </c>
       <c r="F57">
-        <v>10.029999999999999</v>
+        <v>10.03</v>
       </c>
       <c r="G57">
         <v>71.17</v>
@@ -3976,13 +5826,13 @@
         <v>45</v>
       </c>
       <c r="L57">
-        <v>140.41999999999999</v>
+        <v>140.42</v>
       </c>
       <c r="M57">
         <v>337.61</v>
       </c>
       <c r="N57">
-        <v>538.94000000000005</v>
+        <v>538.94</v>
       </c>
       <c r="O57">
         <v>9.33</v>
@@ -4009,12 +5859,12 @@
       <c r="AH57" s="2"/>
       <c r="AI57" s="2"/>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:35">
       <c r="A58" s="1">
-        <v>6.7361111111111103E-3</v>
+        <v>0.00673611111111111</v>
       </c>
       <c r="B58" s="1">
-        <v>0.44774305555555555</v>
+        <v>0.447743055555556</v>
       </c>
       <c r="C58">
         <v>163.46</v>
@@ -4026,7 +5876,7 @@
         <v>16.02</v>
       </c>
       <c r="F58">
-        <v>10.039999999999999</v>
+        <v>10.04</v>
       </c>
       <c r="G58">
         <v>71.8</v>
@@ -4053,7 +5903,7 @@
         <v>536.9</v>
       </c>
       <c r="O58">
-        <v>9.3000000000000007</v>
+        <v>9.3</v>
       </c>
       <c r="P58">
         <v>72.67</v>
@@ -4077,12 +5927,12 @@
       <c r="AH58" s="2"/>
       <c r="AI58" s="2"/>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:35">
       <c r="A59" s="1">
-        <v>6.851851851851852E-3</v>
+        <v>0.00685185185185185</v>
       </c>
       <c r="B59" s="1">
-        <v>0.44785879629629632</v>
+        <v>0.447858796296296</v>
       </c>
       <c r="C59">
         <v>167.89</v>
@@ -4091,10 +5941,10 @@
         <v>96.33</v>
       </c>
       <c r="E59">
-        <v>16.170000000000002</v>
+        <v>16.17</v>
       </c>
       <c r="F59">
-        <v>10.130000000000001</v>
+        <v>10.13</v>
       </c>
       <c r="G59">
         <v>72.14</v>
@@ -4112,7 +5962,7 @@
         <v>43</v>
       </c>
       <c r="L59">
-        <v>133.55000000000001</v>
+        <v>133.55</v>
       </c>
       <c r="M59">
         <v>333.14</v>
@@ -4130,7 +5980,7 @@
         <v>43.2</v>
       </c>
       <c r="S59" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="U59" s="2"/>
       <c r="V59" s="2"/>
@@ -4148,12 +5998,12 @@
       <c r="AH59" s="2"/>
       <c r="AI59" s="2"/>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:35">
       <c r="A60" s="1">
-        <v>6.9675925925925921E-3</v>
+        <v>0.00696759259259259</v>
       </c>
       <c r="B60" s="1">
-        <v>0.44797453703703699</v>
+        <v>0.447974537037037</v>
       </c>
       <c r="C60">
         <v>171.17</v>
@@ -4183,7 +6033,7 @@
         <v>42.45</v>
       </c>
       <c r="L60">
-        <v>141.63999999999999</v>
+        <v>141.64</v>
       </c>
       <c r="M60">
         <v>308.26</v>
@@ -4192,81 +6042,81 @@
         <v>492.07</v>
       </c>
       <c r="O60">
-        <v>10.039999999999999</v>
+        <v>10.04</v>
       </c>
       <c r="P60">
-        <v>66.040000000000006</v>
+        <v>66.04</v>
       </c>
       <c r="Q60">
         <v>44.26</v>
       </c>
       <c r="U60" s="2">
         <f>AVERAGE(C54:C60)</f>
-        <v>161.60999999999999</v>
+        <v>161.61</v>
       </c>
       <c r="V60" s="2">
         <f t="shared" ref="V60:AI60" si="1">AVERAGE(D54:D60)</f>
-        <v>97.232857142857142</v>
+        <v>97.2328571428571</v>
       </c>
       <c r="W60" s="2">
         <f t="shared" si="1"/>
-        <v>15.725714285714286</v>
+        <v>15.7257142857143</v>
       </c>
       <c r="X60" s="2">
         <f t="shared" si="1"/>
-        <v>9.8514285714285723</v>
+        <v>9.85142857142857</v>
       </c>
       <c r="Y60" s="2">
         <f t="shared" si="1"/>
-        <v>70.855714285714285</v>
+        <v>70.8557142857143</v>
       </c>
       <c r="Z60" s="2">
         <f t="shared" si="1"/>
-        <v>251.91000000000003</v>
+        <v>251.91</v>
       </c>
       <c r="AA60" s="2">
         <f t="shared" si="1"/>
-        <v>224.0371428571429</v>
+        <v>224.037142857143</v>
       </c>
       <c r="AB60" s="2">
         <f t="shared" si="1"/>
-        <v>133.69999999999999</v>
+        <v>133.7</v>
       </c>
       <c r="AC60" s="2">
         <f t="shared" si="1"/>
-        <v>44.484285714285711</v>
+        <v>44.4842857142857</v>
       </c>
       <c r="AD60" s="2">
         <f t="shared" si="1"/>
-        <v>137.22285714285715</v>
+        <v>137.222857142857</v>
       </c>
       <c r="AE60" s="2">
         <f t="shared" si="1"/>
-        <v>343.47571428571428</v>
+        <v>343.475714285714</v>
       </c>
       <c r="AF60" s="2">
         <f t="shared" si="1"/>
-        <v>548.29571428571433</v>
+        <v>548.295714285714</v>
       </c>
       <c r="AG60" s="2">
         <f t="shared" si="1"/>
-        <v>9.1114285714285703</v>
+        <v>9.11142857142857</v>
       </c>
       <c r="AH60" s="2">
         <f t="shared" si="1"/>
-        <v>67.402857142857144</v>
+        <v>67.4028571428571</v>
       </c>
       <c r="AI60" s="2">
         <f t="shared" si="1"/>
-        <v>42.124285714285712</v>
+        <v>42.1242857142857</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:35">
       <c r="A61" s="1">
-        <v>7.083333333333333E-3</v>
+        <v>0.00708333333333333</v>
       </c>
       <c r="B61" s="1">
-        <v>0.44809027777777777</v>
+        <v>0.448090277777778</v>
       </c>
       <c r="C61">
         <v>173.64</v>
@@ -4290,13 +6140,13 @@
         <v>225.83</v>
       </c>
       <c r="J61">
-        <v>136.44999999999999</v>
+        <v>136.45</v>
       </c>
       <c r="K61">
         <v>41</v>
       </c>
       <c r="L61">
-        <v>147.69999999999999</v>
+        <v>147.7</v>
       </c>
       <c r="M61">
         <v>289.18</v>
@@ -4329,12 +6179,12 @@
       <c r="AH61" s="2"/>
       <c r="AI61" s="2"/>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:35">
       <c r="A62" s="1">
-        <v>7.1990740740740739E-3</v>
+        <v>0.00719907407407407</v>
       </c>
       <c r="B62" s="1">
-        <v>0.44820601851851855</v>
+        <v>0.448206018518519</v>
       </c>
       <c r="C62">
         <v>175.13</v>
@@ -4358,7 +6208,7 @@
         <v>228.58</v>
       </c>
       <c r="J62">
-        <v>135.83000000000001</v>
+        <v>135.83</v>
       </c>
       <c r="K62">
         <v>41.28</v>
@@ -4382,7 +6232,7 @@
         <v>49.38</v>
       </c>
       <c r="S62" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="U62" s="2"/>
       <c r="V62" s="2"/>
@@ -4400,12 +6250,12 @@
       <c r="AH62" s="2"/>
       <c r="AI62" s="2"/>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:35">
       <c r="A63" s="1">
-        <v>7.3148148148148148E-3</v>
+        <v>0.00731481481481481</v>
       </c>
       <c r="B63" s="1">
-        <v>0.44832175925925927</v>
+        <v>0.448321759259259</v>
       </c>
       <c r="C63">
         <v>174.04</v>
@@ -4414,7 +6264,7 @@
         <v>102.33</v>
       </c>
       <c r="E63">
-        <v>17.809999999999999</v>
+        <v>17.81</v>
       </c>
       <c r="F63">
         <v>11.16</v>
@@ -4447,30 +6297,30 @@
         <v>10.31</v>
       </c>
       <c r="P63">
-        <v>65.400000000000006</v>
+        <v>65.4</v>
       </c>
       <c r="Q63">
         <v>43.72</v>
       </c>
       <c r="U63" s="2">
         <f>AVERAGE(C60:C63)</f>
-        <v>173.49499999999998</v>
+        <v>173.495</v>
       </c>
       <c r="V63" s="2">
         <f t="shared" ref="V63:AI63" si="2">AVERAGE(D60:D63)</f>
-        <v>102.80749999999999</v>
+        <v>102.8075</v>
       </c>
       <c r="W63" s="2">
         <f t="shared" si="2"/>
-        <v>17.837499999999999</v>
+        <v>17.8375</v>
       </c>
       <c r="X63" s="2">
         <f t="shared" si="2"/>
-        <v>11.175000000000001</v>
+        <v>11.175</v>
       </c>
       <c r="Y63" s="2">
         <f t="shared" si="2"/>
-        <v>71.592500000000001</v>
+        <v>71.5925</v>
       </c>
       <c r="Z63" s="2">
         <f t="shared" si="2"/>
@@ -4478,7 +6328,7 @@
       </c>
       <c r="AA63" s="2">
         <f t="shared" si="2"/>
-        <v>233.23750000000001</v>
+        <v>233.2375</v>
       </c>
       <c r="AB63" s="2">
         <f t="shared" si="2"/>
@@ -4486,7 +6336,7 @@
       </c>
       <c r="AC63" s="2">
         <f t="shared" si="2"/>
-        <v>41.612499999999997</v>
+        <v>41.6125</v>
       </c>
       <c r="AD63" s="2">
         <f t="shared" si="2"/>
@@ -4494,7 +6344,7 @@
       </c>
       <c r="AE63" s="2">
         <f t="shared" si="2"/>
-        <v>298.38499999999999</v>
+        <v>298.385</v>
       </c>
       <c r="AF63" s="2">
         <f t="shared" si="2"/>
@@ -4510,15 +6360,15 @@
       </c>
       <c r="AI63" s="2">
         <f t="shared" si="2"/>
-        <v>47.262499999999996</v>
+        <v>47.2625</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17">
       <c r="A64" s="1">
-        <v>7.4305555555555548E-3</v>
+        <v>0.00743055555555555</v>
       </c>
       <c r="B64" s="1">
-        <v>0.44843749999999999</v>
+        <v>0.4484375</v>
       </c>
       <c r="C64">
         <v>166.12</v>
@@ -4527,19 +6377,19 @@
         <v>109.52</v>
       </c>
       <c r="E64">
-        <v>18.190000000000001</v>
+        <v>18.19</v>
       </c>
       <c r="F64">
         <v>11.4</v>
       </c>
       <c r="G64">
-        <v>73.849999999999994</v>
+        <v>73.85</v>
       </c>
       <c r="H64">
         <v>254.29</v>
       </c>
       <c r="I64">
-        <v>263.64999999999998</v>
+        <v>263.65</v>
       </c>
       <c r="J64">
         <v>141.43</v>
@@ -4551,7 +6401,7 @@
         <v>148.31</v>
       </c>
       <c r="M64">
-        <v>296.77999999999997</v>
+        <v>296.78</v>
       </c>
       <c r="N64">
         <v>473.75</v>
@@ -4566,12 +6416,12 @@
         <v>39.68</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17">
       <c r="A65" s="1">
-        <v>7.5462962962962966E-3</v>
+        <v>0.0075462962962963</v>
       </c>
       <c r="B65" s="1">
-        <v>0.44855324074074071</v>
+        <v>0.448553240740741</v>
       </c>
       <c r="C65">
         <v>160.66</v>
@@ -4586,7 +6436,7 @@
         <v>10.7</v>
       </c>
       <c r="G65">
-        <v>72.790000000000006</v>
+        <v>72.79</v>
       </c>
       <c r="H65">
         <v>229.23</v>
@@ -4619,12 +6469,12 @@
         <v>40.68</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17">
       <c r="A66" s="1">
-        <v>7.6620370370370366E-3</v>
+        <v>0.00766203703703704</v>
       </c>
       <c r="B66" s="1">
-        <v>0.44866898148148149</v>
+        <v>0.448668981481481</v>
       </c>
       <c r="C66">
         <v>152.32</v>
@@ -4636,19 +6486,19 @@
         <v>15.88</v>
       </c>
       <c r="F66">
-        <v>9.9499999999999993</v>
+        <v>9.95</v>
       </c>
       <c r="G66">
-        <v>71.709999999999994</v>
+        <v>71.71</v>
       </c>
       <c r="H66">
-        <v>262.14999999999998</v>
+        <v>262.15</v>
       </c>
       <c r="I66">
         <v>234.47</v>
       </c>
       <c r="J66">
-        <v>135.27000000000001</v>
+        <v>135.27</v>
       </c>
       <c r="K66">
         <v>46.38</v>
@@ -4660,10 +6510,10 @@
         <v>347.73</v>
       </c>
       <c r="N66">
-        <v>555.08000000000004</v>
+        <v>555.08</v>
       </c>
       <c r="O66">
-        <v>9.4600000000000009</v>
+        <v>9.46</v>
       </c>
       <c r="P66">
         <v>68.5</v>
@@ -4672,12 +6522,12 @@
         <v>45.14</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17">
       <c r="A67" s="1">
-        <v>7.7777777777777767E-3</v>
+        <v>0.00777777777777778</v>
       </c>
       <c r="B67" s="1">
-        <v>0.44878472222222227</v>
+        <v>0.448784722222222</v>
       </c>
       <c r="C67">
         <v>143.9</v>
@@ -4692,7 +6542,7 @@
         <v>9.18</v>
       </c>
       <c r="G67">
-        <v>71.209999999999994</v>
+        <v>71.21</v>
       </c>
       <c r="H67">
         <v>201.83</v>
@@ -4701,7 +6551,7 @@
         <v>228.11</v>
       </c>
       <c r="J67">
-        <v>136.58000000000001</v>
+        <v>136.58</v>
       </c>
       <c r="K67">
         <v>42</v>
@@ -4713,7 +6563,7 @@
         <v>363.29</v>
       </c>
       <c r="N67">
-        <v>579.91999999999996</v>
+        <v>579.92</v>
       </c>
       <c r="O67">
         <v>8.4</v>
@@ -4725,15 +6575,15 @@
         <v>40.17</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17">
       <c r="A68" s="1">
-        <v>7.8935185185185185E-3</v>
+        <v>0.00789351851851852</v>
       </c>
       <c r="B68" s="1">
-        <v>0.44890046296296293</v>
+        <v>0.448900462962963</v>
       </c>
       <c r="C68">
-        <v>139.22999999999999</v>
+        <v>139.23</v>
       </c>
       <c r="D68">
         <v>99.28</v>
@@ -4748,7 +6598,7 @@
         <v>71.52</v>
       </c>
       <c r="H68">
-        <v>297.91000000000003</v>
+        <v>297.91</v>
       </c>
       <c r="I68">
         <v>231.95</v>
@@ -4772,42 +6622,52 @@
         <v>7.99</v>
       </c>
       <c r="P68">
-        <v>65.760000000000005</v>
+        <v>65.76</v>
       </c>
       <c r="Q68">
         <v>32.93</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>